--- a/global_accuracy.xlsx
+++ b/global_accuracy.xlsx
@@ -454,13 +454,13 @@
         <v>84.0727272727273</v>
       </c>
       <c r="C3" t="n">
-        <v>66.1818181818182</v>
+        <v>66.1090909090909</v>
       </c>
       <c r="D3" t="n">
         <v>69.8181818181818</v>
       </c>
       <c r="E3" t="n">
-        <v>60.3636363636364</v>
+        <v>60.2909090909091</v>
       </c>
     </row>
     <row r="4">
@@ -471,13 +471,13 @@
         <v>84.7636363636364</v>
       </c>
       <c r="C4" t="n">
-        <v>67.1272727272727</v>
+        <v>67.0909090909091</v>
       </c>
       <c r="D4" t="n">
         <v>71.2363636363636</v>
       </c>
       <c r="E4" t="n">
-        <v>61.4181818181818</v>
+        <v>61.3818181818182</v>
       </c>
     </row>
     <row r="5">
@@ -641,13 +641,13 @@
         <v>85.1272727272727</v>
       </c>
       <c r="C14" t="n">
-        <v>67.9545454545455</v>
+        <v>67.9454545454545</v>
       </c>
       <c r="D14" t="n">
         <v>72.3727272727273</v>
       </c>
       <c r="E14" t="n">
-        <v>62.3636363636364</v>
+        <v>62.3545454545455</v>
       </c>
     </row>
     <row r="15">
@@ -706,16 +706,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>85.9636363636364</v>
+        <v>86.1090909090909</v>
       </c>
       <c r="C18" t="n">
-        <v>70.4727272727273</v>
+        <v>70.4</v>
       </c>
       <c r="D18" t="n">
-        <v>74.1090909090909</v>
+        <v>74.1818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>65.5272727272727</v>
+        <v>65.4545454545455</v>
       </c>
     </row>
     <row r="19">
@@ -723,16 +723,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>83.7272727272727</v>
+        <v>83.7636363636364</v>
       </c>
       <c r="C19" t="n">
-        <v>68.4727272727273</v>
+        <v>68.4545454545455</v>
       </c>
       <c r="D19" t="n">
-        <v>72.1454545454545</v>
+        <v>72.1636363636364</v>
       </c>
       <c r="E19" t="n">
-        <v>62.6363636363636</v>
+        <v>62.6181818181818</v>
       </c>
     </row>
   </sheetData>
